--- a/flv_fp.xlsx
+++ b/flv_fp.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>frozenset({'chilischote', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'chilischote'})</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'sonnenblumenöl'})</t>
+          <t>frozenset({'sonnenblumenöl', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'zitrone'})</t>
+          <t>frozenset({'zitrone', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -827,7 +827,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'zucker'})</t>
+          <t>frozenset({'zucker', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>frozenset({'petersilie', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'petersilie'})</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>frozenset({'zwiebel', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'zwiebel'})</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>frozenset({'limette', 'knoblauch', 'chilischote'})</t>
+          <t>frozenset({'limette', 'chilischote', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>frozenset({'chilischote', 'knoblauch', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'chilischote', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>frozenset({'limette', 'knoblauch', 'olivenöl'})</t>
+          <t>frozenset({'limette', 'olivenöl', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'olivenöl', 'zitrone'})</t>
+          <t>frozenset({'olivenöl', 'zitrone', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>frozenset({'knoblauch', 'zwiebel', 'olivenöl'})</t>
+          <t>frozenset({'olivenöl', 'zwiebel', 'knoblauch'})</t>
         </is>
       </c>
       <c r="D35" t="n">
